--- a/Time-Card/GNSS/UBlox/NEO-M9N/Altium/ECAD/V1/V1/Project Outputs for 846-XXXXX_SCH_NEO-M9N_MODULE/GPS_MODULE_NEO-M9N_BOM_sma-ver.xlsx
+++ b/Time-Card/GNSS/UBlox/NEO-M9N/Altium/ECAD/V1/V1/Project Outputs for 846-XXXXX_SCH_NEO-M9N_MODULE/GPS_MODULE_NEO-M9N_BOM_sma-ver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apinales/Documents/GitHub/Time-Appliance-Project/Time-Card/GNSS/UBlox/NEO-M9N/Altium/FAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\Time-Card\GNSS\UBlox\NEO-M9N\Altium\ECAD\V1\V1\Project Outputs for 846-XXXXX_SCH_NEO-M9N_MODULE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF4FC4-2F77-874E-A28C-9371A36F340E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD777D8E-B77C-4DAB-A07B-5F235448196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40820" yWindow="9600" windowWidth="23860" windowHeight="14100" xr2:uid="{1A1EACE4-F42F-48A9-9BF0-299118B28BF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A1EACE4-F42F-48A9-9BF0-299118B28BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="844-XXXXX-XX-RevX1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>Designator</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Bel Cinch</t>
-  </si>
-  <si>
-    <t>CONN_131-3711-301</t>
   </si>
   <si>
     <t>Rf Coaxial Board Mount Connector</t>
@@ -386,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,9 +399,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,7 +439,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -548,7 +545,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -690,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,24 +698,24 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -782,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -814,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -846,7 +843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -878,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -910,7 +907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -942,7 +939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -974,7 +971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1038,7 +1035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>88</v>
       </c>
@@ -1180,22 +1177,22 @@
         <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
